--- a/docs/excel/TMail.xlsx
+++ b/docs/excel/TMail.xlsx
@@ -133,9 +133,6 @@
     <t>奖励测试1</t>
   </si>
   <si>
-    <t>这是您获得的奖励{0}，请您查收！</t>
-  </si>
-  <si>
     <t>奖励测试2</t>
   </si>
   <si>
@@ -145,49 +142,16 @@
     <t>锦标赛奖励</t>
   </si>
   <si>
-    <t>您在免费-10元话费赛中获得冠军，奖励{0}，请查收！</t>
-  </si>
-  <si>
-    <t>您在30元话费争夺赛中获得冠军，奖励{0}，请查收！</t>
-  </si>
-  <si>
-    <t>您在30元话费争夺赛中获得第2名，奖励{0}，请查收！</t>
-  </si>
-  <si>
-    <t>您在100元话费争夺赛中获得冠军，奖励{0}，请查收！</t>
-  </si>
-  <si>
-    <t>您在100元话费争夺赛中获得第2名，奖励{0}，请查收！</t>
-  </si>
-  <si>
-    <t>您在100元话费争夺赛中获得第3名，奖励{0}，请查收！</t>
-  </si>
-  <si>
     <t>首充优惠奖励</t>
   </si>
   <si>
-    <t>您好，这是您的首充优惠奖励，请注意查收！</t>
-  </si>
-  <si>
     <t>邀请奖励</t>
   </si>
   <si>
-    <t>{0}(ID：{1})绑定了您的邀请码，获得{2}金币，请查收！</t>
-  </si>
-  <si>
     <t>赠送礼物</t>
   </si>
   <si>
-    <t>&lt;font color='#f9cb55'&gt;{1}&lt;/font&gt;赠送给您礼物：&lt;font color='#f9cb55'&gt;{0}&lt;/font&gt;。</t>
-  </si>
-  <si>
     <t>赠送道具</t>
-  </si>
-  <si>
-    <t>&lt;font color='#f9cb55'&gt;{1}&lt;/font&gt;赠送给您&lt;font color='#f9cb55'&gt;{0}金币&lt;/font&gt;。</t>
-  </si>
-  <si>
-    <t>&lt;font color='#f9cb55'&gt;{1}&lt;/font&gt;赠送给您&lt;font color='#f9cb55'&gt;{0}&lt;/font&gt;。</t>
   </si>
   <si>
     <t>赠送VIP</t>
@@ -210,6 +174,700 @@
   </si>
   <si>
     <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，这是您的首充优惠奖励，请注意查收！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这是您获得的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请您查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是您获得的{奖励}，请您查收！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元话费赛中获得冠军，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元话费争夺赛中获得冠军，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元话费争夺赛中获得第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元话费争夺赛中获得冠军，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元话费争夺赛中获得第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元话费争夺赛中获得第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>}(ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>%d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绑定了您的邀请码，获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，请查收！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color='#f9cb55'&gt;%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赠送给您礼物：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;font color='#f9cb55'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color='#f9cb55'&gt;%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赠送给您</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;font color='#f9cb55'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +1288,7 @@
   <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,21 +1296,21 @@
     <col min="1" max="1" width="37.69921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="76.796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -694,8 +1352,8 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,13 +1361,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,13 +1375,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,13 +1389,13 @@
         <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -745,13 +1403,13 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -759,13 +1417,13 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
+      <c r="D10" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,13 +1431,13 @@
         <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -787,13 +1445,13 @@
         <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -801,13 +1459,13 @@
         <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,13 +1473,13 @@
         <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
+      <c r="D14" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,13 +1487,13 @@
         <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>35</v>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -843,13 +1501,13 @@
         <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -857,13 +1515,13 @@
         <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>39</v>
+      <c r="D17" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -871,13 +1529,13 @@
         <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>40</v>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -885,13 +1543,13 @@
         <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
+      <c r="D19" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,7 +3091,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TMail.xlsx
+++ b/docs/excel/TMail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
+    <workbookView xWindow="225" yWindow="165" windowWidth="27915" windowHeight="12315" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="Mail" sheetId="1" r:id="rId1"/>
@@ -652,14 +652,154 @@
   </si>
   <si>
     <r>
-      <t>{%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>}(ID</t>
+      <t>&lt;font color='#f9cb55'&gt;%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赠送给您礼物：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;font color='#f9cb55'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;font color='#f9cb55'&gt;%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赠送给您</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;font color='#f9cb55'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奖励</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>&lt;/font&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>%s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>(ID</t>
     </r>
     <r>
       <rPr>
@@ -727,146 +867,6 @@
         <charset val="134"/>
       </rPr>
       <t>，请查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color='#f9cb55'&gt;%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赠送给您礼物：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;font color='#f9cb55'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color='#f9cb55'&gt;%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赠送给您</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;font color='#f9cb55'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1493,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1549,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/excel/TMail.xlsx
+++ b/docs/excel/TMail.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -130,31 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励测试1</t>
-  </si>
-  <si>
-    <t>奖励测试2</t>
-  </si>
-  <si>
-    <t>奖励测试3</t>
-  </si>
-  <si>
     <t>锦标赛奖励</t>
-  </si>
-  <si>
-    <t>首充优惠奖励</t>
-  </si>
-  <si>
-    <t>邀请奖励</t>
-  </si>
-  <si>
-    <t>赠送礼物</t>
-  </si>
-  <si>
-    <t>赠送道具</t>
-  </si>
-  <si>
-    <t>赠送VIP</t>
   </si>
   <si>
     <t>TableName: "Mail" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -177,697 +153,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您好，这是您的首充优惠奖励，请注意查收！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这是您获得的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请您查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是您获得的{奖励}，请您查收！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元话费赛中获得冠军，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元话费争夺赛中获得冠军，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元话费争夺赛中获得第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元话费争夺赛中获得冠军，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元话费争夺赛中获得第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>您在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元话费争夺赛中获得第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请查收！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color='#f9cb55'&gt;%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赠送给您礼物：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;font color='#f9cb55'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;font color='#f9cb55'&gt;%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赠送给您</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;font color='#f9cb55'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>&lt;/font&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>%s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>(ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>%d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绑定了您的邀请码，获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>奖励</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，请查收！</t>
-    </r>
+    <t>您在{0}中获得{1}，奖励{2}，请查收！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1301,16 +587,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1344,7 +630,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1352,205 +638,85 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>122</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>124</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>141</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>161</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>162</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>163</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20"/>
@@ -1567,17 +733,18 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
+      <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
+      <c r="D24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25"/>
@@ -1621,7 +788,6 @@
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33"/>
@@ -1632,7 +798,6 @@
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35"/>
@@ -1643,7 +808,6 @@
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
-      <c r="D36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37"/>
@@ -1654,7 +818,6 @@
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
-      <c r="D38"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39"/>
@@ -1665,7 +828,6 @@
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41"/>
@@ -1676,7 +838,6 @@
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
-      <c r="D42"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43"/>
@@ -1687,12 +848,12 @@
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
-      <c r="D44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
+      <c r="D45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46"/>
@@ -1703,6 +864,7 @@
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
+      <c r="D47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48"/>
@@ -1713,6 +875,7 @@
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
+      <c r="D49"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50"/>
@@ -1723,6 +886,7 @@
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
+      <c r="D51"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52"/>
@@ -1733,6 +897,7 @@
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
+      <c r="D53"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54"/>
@@ -1743,6 +908,7 @@
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
+      <c r="D55"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56"/>
@@ -1753,6 +919,7 @@
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
+      <c r="D57"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58"/>
@@ -2985,83 +2152,6 @@
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282"/>
-      <c r="B282"/>
-      <c r="C282"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283"/>
-      <c r="B283"/>
-      <c r="C283"/>
-      <c r="D283"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284"/>
-      <c r="B284"/>
-      <c r="C284"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285"/>
-      <c r="B285"/>
-      <c r="C285"/>
-      <c r="D285"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286"/>
-      <c r="B286"/>
-      <c r="C286"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287"/>
-      <c r="B287"/>
-      <c r="C287"/>
-      <c r="D287"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288"/>
-      <c r="B288"/>
-      <c r="C288"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A289"/>
-      <c r="B289"/>
-      <c r="C289"/>
-      <c r="D289"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A290"/>
-      <c r="B290"/>
-      <c r="C290"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291"/>
-      <c r="B291"/>
-      <c r="C291"/>
-      <c r="D291"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292"/>
-      <c r="B292"/>
-      <c r="C292"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A293"/>
-      <c r="B293"/>
-      <c r="C293"/>
-      <c r="D293"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A294"/>
-      <c r="B294"/>
-      <c r="C294"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A295"/>
-      <c r="B295"/>
-      <c r="C295"/>
-      <c r="D295"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3091,7 +2181,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
